--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cort-Sstr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cort-Sstr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Cort</t>
+  </si>
+  <si>
+    <t>Sstr4</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Cort</t>
-  </si>
-  <si>
-    <t>Sstr4</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -546,10 +546,10 @@
         <v>0.687311</v>
       </c>
       <c r="I2">
-        <v>0.5327486343351117</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.6027193405533389</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.267818666666667</v>
+        <v>2.262111666666667</v>
       </c>
       <c r="N2">
-        <v>15.803456</v>
+        <v>6.786335</v>
       </c>
       <c r="O2">
-        <v>0.7477643541369983</v>
+        <v>0.6490484750528689</v>
       </c>
       <c r="P2">
-        <v>0.77638406375097</v>
+        <v>0.6576631858884425</v>
       </c>
       <c r="Q2">
-        <v>1.206876571868445</v>
+        <v>0.5182580772427778</v>
       </c>
       <c r="R2">
-        <v>10.861889146816</v>
+        <v>4.664322695185001</v>
       </c>
       <c r="S2">
-        <v>0.3983704384709627</v>
+        <v>0.6490484750528689</v>
       </c>
       <c r="T2">
-        <v>0.4679416909201061</v>
+        <v>0.6576631858884425</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +608,10 @@
         <v>0.687311</v>
       </c>
       <c r="I3">
-        <v>0.5327486343351117</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.6027193405533389</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,10 +626,10 @@
         <v>0.870128</v>
       </c>
       <c r="O3">
-        <v>0.04117141857683016</v>
+        <v>0.08321947730266818</v>
       </c>
       <c r="P3">
-        <v>0.0427472011579938</v>
+        <v>0.08432403537560977</v>
       </c>
       <c r="Q3">
         <v>0.06644983842311111</v>
@@ -638,10 +638,10 @@
         <v>0.598048545808</v>
       </c>
       <c r="S3">
-        <v>0.02193401702044551</v>
+        <v>0.08321947730266818</v>
       </c>
       <c r="T3">
-        <v>0.02576456489244695</v>
+        <v>0.08432403537560977</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -670,10 +670,10 @@
         <v>0.687311</v>
       </c>
       <c r="I4">
-        <v>0.5327486343351117</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.6027193405533389</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3225006666666667</v>
+        <v>0.4927133333333333</v>
       </c>
       <c r="N4">
-        <v>0.967502</v>
+        <v>1.47814</v>
       </c>
       <c r="O4">
-        <v>0.04577881623843886</v>
+        <v>0.1413700492113413</v>
       </c>
       <c r="P4">
-        <v>0.04753094098197198</v>
+        <v>0.1432464300081182</v>
       </c>
       <c r="Q4">
-        <v>0.07388608523577778</v>
+        <v>0.1128824312822222</v>
       </c>
       <c r="R4">
-        <v>0.664974767122</v>
+        <v>1.01594188154</v>
       </c>
       <c r="S4">
-        <v>0.02438860183250633</v>
+        <v>0.1413700492113413</v>
       </c>
       <c r="T4">
-        <v>0.02864781740453382</v>
+        <v>0.1432464300081182</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -732,10 +732,10 @@
         <v>0.687311</v>
       </c>
       <c r="I5">
-        <v>0.5327486343351117</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.6027193405533389</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.779069</v>
+        <v>0.1369605</v>
       </c>
       <c r="N5">
-        <v>1.558138</v>
+        <v>0.273921</v>
       </c>
       <c r="O5">
-        <v>0.1105884739919845</v>
+        <v>0.03929691225122769</v>
       </c>
       <c r="P5">
-        <v>0.07654740281649842</v>
+        <v>0.02654566235556424</v>
       </c>
       <c r="Q5">
-        <v>0.1784875644863333</v>
+        <v>0.0313781527385</v>
       </c>
       <c r="R5">
-        <v>1.070925386918</v>
+        <v>0.188268916431</v>
       </c>
       <c r="S5">
-        <v>0.05891585849243375</v>
+        <v>0.03929691225122769</v>
       </c>
       <c r="T5">
-        <v>0.04613660014663073</v>
+        <v>0.02654566235556424</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -794,660 +794,40 @@
         <v>0.687311</v>
       </c>
       <c r="I6">
-        <v>0.5327486343351117</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.6027193405533389</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.3853266666666667</v>
+        <v>0.3034456666666667</v>
       </c>
       <c r="N6">
-        <v>1.15598</v>
+        <v>0.910337</v>
       </c>
       <c r="O6">
-        <v>0.05469693705574826</v>
+        <v>0.08706508618189399</v>
       </c>
       <c r="P6">
-        <v>0.05679039129256577</v>
+        <v>0.08822068637226531</v>
       </c>
       <c r="Q6">
-        <v>0.08827975219777778</v>
+        <v>0.06952051486744446</v>
       </c>
       <c r="R6">
-        <v>0.79451776978</v>
+        <v>0.625684633807</v>
       </c>
       <c r="S6">
-        <v>0.02913971851876345</v>
+        <v>0.08706508618189399</v>
       </c>
       <c r="T6">
-        <v>0.03422866718962132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.05116466666666667</v>
-      </c>
-      <c r="H7">
-        <v>0.153494</v>
-      </c>
-      <c r="I7">
-        <v>0.1189762987623268</v>
-      </c>
-      <c r="J7">
-        <v>0.1346025343096418</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>5.267818666666667</v>
-      </c>
-      <c r="N7">
-        <v>15.803456</v>
-      </c>
-      <c r="O7">
-        <v>0.7477643541369983</v>
-      </c>
-      <c r="P7">
-        <v>0.77638406375097</v>
-      </c>
-      <c r="Q7">
-        <v>0.2695261861404445</v>
-      </c>
-      <c r="R7">
-        <v>2.425735675264</v>
-      </c>
-      <c r="S7">
-        <v>0.08896623520162188</v>
-      </c>
-      <c r="T7">
-        <v>0.1045032625784991</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.05116466666666667</v>
-      </c>
-      <c r="H8">
-        <v>0.153494</v>
-      </c>
-      <c r="I8">
-        <v>0.1189762987623268</v>
-      </c>
-      <c r="J8">
-        <v>0.1346025343096418</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>0.2900426666666667</v>
-      </c>
-      <c r="N8">
-        <v>0.870128</v>
-      </c>
-      <c r="O8">
-        <v>0.04117141857683016</v>
-      </c>
-      <c r="P8">
-        <v>0.0427472011579938</v>
-      </c>
-      <c r="Q8">
-        <v>0.01483993635911111</v>
-      </c>
-      <c r="R8">
-        <v>0.133559427232</v>
-      </c>
-      <c r="S8">
-        <v>0.004898422997065759</v>
-      </c>
-      <c r="T8">
-        <v>0.00575388161051002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.05116466666666667</v>
-      </c>
-      <c r="H9">
-        <v>0.153494</v>
-      </c>
-      <c r="I9">
-        <v>0.1189762987623268</v>
-      </c>
-      <c r="J9">
-        <v>0.1346025343096418</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.3225006666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.967502</v>
-      </c>
-      <c r="O9">
-        <v>0.04577881623843886</v>
-      </c>
-      <c r="P9">
-        <v>0.04753094098197198</v>
-      </c>
-      <c r="Q9">
-        <v>0.01650063910977778</v>
-      </c>
-      <c r="R9">
-        <v>0.148505751988</v>
-      </c>
-      <c r="S9">
-        <v>0.005446594117770162</v>
-      </c>
-      <c r="T9">
-        <v>0.006397785114295442</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.05116466666666667</v>
-      </c>
-      <c r="H10">
-        <v>0.153494</v>
-      </c>
-      <c r="I10">
-        <v>0.1189762987623268</v>
-      </c>
-      <c r="J10">
-        <v>0.1346025343096418</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.779069</v>
-      </c>
-      <c r="N10">
-        <v>1.558138</v>
-      </c>
-      <c r="O10">
-        <v>0.1105884739919845</v>
-      </c>
-      <c r="P10">
-        <v>0.07654740281649842</v>
-      </c>
-      <c r="Q10">
-        <v>0.03986080569533334</v>
-      </c>
-      <c r="R10">
-        <v>0.239164834172</v>
-      </c>
-      <c r="S10">
-        <v>0.01315740732134016</v>
-      </c>
-      <c r="T10">
-        <v>0.0103034744139217</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.05116466666666667</v>
-      </c>
-      <c r="H11">
-        <v>0.153494</v>
-      </c>
-      <c r="I11">
-        <v>0.1189762987623268</v>
-      </c>
-      <c r="J11">
-        <v>0.1346025343096418</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.3853266666666667</v>
-      </c>
-      <c r="N11">
-        <v>1.15598</v>
-      </c>
-      <c r="O11">
-        <v>0.05469693705574826</v>
-      </c>
-      <c r="P11">
-        <v>0.05679039129256577</v>
-      </c>
-      <c r="Q11">
-        <v>0.01971511045777778</v>
-      </c>
-      <c r="R11">
-        <v>0.17743599412</v>
-      </c>
-      <c r="S11">
-        <v>0.006507639124528891</v>
-      </c>
-      <c r="T11">
-        <v>0.007644130592415568</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.5</v>
-      </c>
-      <c r="G12">
-        <v>0.1497725</v>
-      </c>
-      <c r="H12">
-        <v>0.299545</v>
-      </c>
-      <c r="I12">
-        <v>0.3482750669025616</v>
-      </c>
-      <c r="J12">
-        <v>0.2626781251370193</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>5.267818666666667</v>
-      </c>
-      <c r="N12">
-        <v>15.803456</v>
-      </c>
-      <c r="O12">
-        <v>0.7477643541369983</v>
-      </c>
-      <c r="P12">
-        <v>0.77638406375097</v>
-      </c>
-      <c r="Q12">
-        <v>0.7889743712533334</v>
-      </c>
-      <c r="R12">
-        <v>4.73384622752</v>
-      </c>
-      <c r="S12">
-        <v>0.2604276804644138</v>
-      </c>
-      <c r="T12">
-        <v>0.2039391102523649</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.5</v>
-      </c>
-      <c r="G13">
-        <v>0.1497725</v>
-      </c>
-      <c r="H13">
-        <v>0.299545</v>
-      </c>
-      <c r="I13">
-        <v>0.3482750669025616</v>
-      </c>
-      <c r="J13">
-        <v>0.2626781251370193</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M13">
-        <v>0.2900426666666667</v>
-      </c>
-      <c r="N13">
-        <v>0.870128</v>
-      </c>
-      <c r="O13">
-        <v>0.04117141857683016</v>
-      </c>
-      <c r="P13">
-        <v>0.0427472011579938</v>
-      </c>
-      <c r="Q13">
-        <v>0.04344041529333333</v>
-      </c>
-      <c r="R13">
-        <v>0.26064249176</v>
-      </c>
-      <c r="S13">
-        <v>0.01433897855931889</v>
-      </c>
-      <c r="T13">
-        <v>0.01122875465503683</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.5</v>
-      </c>
-      <c r="G14">
-        <v>0.1497725</v>
-      </c>
-      <c r="H14">
-        <v>0.299545</v>
-      </c>
-      <c r="I14">
-        <v>0.3482750669025616</v>
-      </c>
-      <c r="J14">
-        <v>0.2626781251370193</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>0.3225006666666667</v>
-      </c>
-      <c r="N14">
-        <v>0.967502</v>
-      </c>
-      <c r="O14">
-        <v>0.04577881623843886</v>
-      </c>
-      <c r="P14">
-        <v>0.04753094098197198</v>
-      </c>
-      <c r="Q14">
-        <v>0.04830173109833334</v>
-      </c>
-      <c r="R14">
-        <v>0.28981038659</v>
-      </c>
-      <c r="S14">
-        <v>0.01594362028816237</v>
-      </c>
-      <c r="T14">
-        <v>0.01248533846314272</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.5</v>
-      </c>
-      <c r="G15">
-        <v>0.1497725</v>
-      </c>
-      <c r="H15">
-        <v>0.299545</v>
-      </c>
-      <c r="I15">
-        <v>0.3482750669025616</v>
-      </c>
-      <c r="J15">
-        <v>0.2626781251370193</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>0.779069</v>
-      </c>
-      <c r="N15">
-        <v>1.558138</v>
-      </c>
-      <c r="O15">
-        <v>0.1105884739919845</v>
-      </c>
-      <c r="P15">
-        <v>0.07654740281649842</v>
-      </c>
-      <c r="Q15">
-        <v>0.1166831118025</v>
-      </c>
-      <c r="R15">
-        <v>0.46673244721</v>
-      </c>
-      <c r="S15">
-        <v>0.03851520817821059</v>
-      </c>
-      <c r="T15">
-        <v>0.020107328255946</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.5</v>
-      </c>
-      <c r="G16">
-        <v>0.1497725</v>
-      </c>
-      <c r="H16">
-        <v>0.299545</v>
-      </c>
-      <c r="I16">
-        <v>0.3482750669025616</v>
-      </c>
-      <c r="J16">
-        <v>0.2626781251370193</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.3853266666666667</v>
-      </c>
-      <c r="N16">
-        <v>1.15598</v>
-      </c>
-      <c r="O16">
-        <v>0.05469693705574826</v>
-      </c>
-      <c r="P16">
-        <v>0.05679039129256577</v>
-      </c>
-      <c r="Q16">
-        <v>0.05771133818333333</v>
-      </c>
-      <c r="R16">
-        <v>0.3462680291</v>
-      </c>
-      <c r="S16">
-        <v>0.01904957941245593</v>
-      </c>
-      <c r="T16">
-        <v>0.01491759351052888</v>
+        <v>0.08822068637226531</v>
       </c>
     </row>
   </sheetData>
